--- a/modelowanie-danych-ćwiczenia/model_koncepcyjny.xlsx
+++ b/modelowanie-danych-ćwiczenia/model_koncepcyjny.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s-013-20\Downloads\StudyFolder\modelowanie-danych-ćwiczenia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alina\School\2.2\StudyFolder\modelowanie-danych-ćwiczenia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE30EA11-F542-4B21-A885-44105222C990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FFF629-8463-4292-82E1-C65AC79F0CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Encje" sheetId="1" r:id="rId1"/>
@@ -247,10 +247,10 @@
     <t>NIE</t>
   </si>
   <si>
-    <t>XXX-XXX-XXX-XXX</t>
-  </si>
-  <si>
     <t>gdzie XXX to liczba całkowita od 0 do 100</t>
+  </si>
+  <si>
+    <t>XXX,XXX,XXX,XXX</t>
   </si>
 </sst>
 </file>
@@ -352,11 +352,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -369,7 +368,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -413,9 +412,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -453,9 +452,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -488,26 +487,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -540,26 +522,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -739,13 +704,13 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -753,25 +718,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -779,7 +744,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -787,7 +752,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -813,165 +778,165 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>28</v>
       </c>
     </row>
@@ -989,521 +954,521 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="7"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="E4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="E5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="E10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="F11" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" s="4" t="s">
+      <c r="E12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="F13" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="E14" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4" t="s">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="E18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4" t="s">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="E19" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4" t="s">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="E23" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4" t="s">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="E24" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="7"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4" t="s">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4" t="s">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+      <c r="E29" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4" t="s">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E30" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+      <c r="E30" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="7"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F33" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4" t="s">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E34" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+      <c r="E34" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4" t="s">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F35" s="4" t="s">
+      <c r="E35" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1529,19 +1494,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1555,8 +1520,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B2" s="1">
@@ -1569,8 +1534,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="1">
@@ -1581,8 +1546,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B4" s="1">
@@ -1593,8 +1558,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B5" s="1">
@@ -1605,8 +1570,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B6" s="1">
@@ -1617,7 +1582,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>50</v>
       </c>
@@ -1629,7 +1594,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>52</v>
       </c>
@@ -1637,10 +1602,10 @@
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
